--- a/snímače.xlsx
+++ b/snímače.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radim\Desktop\git\project_AUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3A7B6-4E18-458B-AFBF-F9EEBE09C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ADCA75-B98B-4714-8657-86D942A10794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>označení</t>
   </si>
@@ -109,18 +109,41 @@
   </si>
   <si>
     <t>měření množství tepla předaného z tepelného okruhu do nádrže</t>
+  </si>
+  <si>
+    <t>L03.01</t>
+  </si>
+  <si>
+    <t>detekce napuštění maximálního množství čisté vody</t>
+  </si>
+  <si>
+    <t>C03.01</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>měření koncentrace louhu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,12 +206,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -469,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="B2:D12"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +509,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -532,7 +559,7 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -592,14 +619,36 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
